--- a/data/trans_camb/P25_9-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_9-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,19</t>
+          <t>-1,21; 4,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,22</t>
+          <t>-3,35; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,0</t>
+          <t>-1,7; 2,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 9,03</t>
+          <t>-1,77; 5,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 7,46</t>
+          <t>0,0; 5,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 7,04</t>
+          <t>-3,81; 8,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,3</t>
+          <t>-6,44; 6,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,77</t>
+          <t>-5,62; 6,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,85</t>
+          <t>-8,06; 1,77</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; 2,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 4,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 3,52</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 3,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; 1,98</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 2,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>165,49%</t>
+          <t>151,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,98%</t>
+          <t>-30,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>52,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>-24,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-24,85%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-50,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-49,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>40,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-23,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-40,06%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-25,08%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,42; 235,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,28; 398,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,64; 215,11</t>
+          <t>-52,73; 270,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 265,24</t>
+          <t>-84,5; 247,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,62; 184,04</t>
+          <t>-69,06; 187,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,8; 167,16</t>
+          <t>-87,66; 68,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,71; 107,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-47,15; 248,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-78,8; 235,96</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; 184,8</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-84,15; 136,75</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-87,18; 282,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 0,0</t>
+          <t>-5,18; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 0,0</t>
+          <t>-4,8; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,91</t>
+          <t>-2,24; 3,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 3,81</t>
+          <t>-3,26; 4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,4</t>
+          <t>-7,06; 2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 3,38</t>
+          <t>-6,93; 3,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,2</t>
+          <t>-7,54; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,99</t>
+          <t>-4,38; 8,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 4,39</t>
+          <t>-6,6; 6,57</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 11,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 1,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 1,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 5,05</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 4,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 4,91</t>
         </is>
       </c>
     </row>
@@ -964,37 +1192,67 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>226,79%</t>
+          <t>73,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,57%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,32%</t>
+          <t>-44,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-27,9%</t>
+          <t>-17,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,37%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,28%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>66,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-28,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-31,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1275,67 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,84; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 58,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 51,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,62; 58,17</t>
+          <t>-53,43; 57,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,38; 37,18</t>
+          <t>-57,98; 52,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,47; 29,64</t>
+          <t>-37,69; 133,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-44,56; 111,56</t>
+          <t>-46,1; 85,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-19,75; 258,91</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-62,62; 29,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-64,57; 32,72</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-35,85; 122,38</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-38,95; 100,95</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-38,65; 124,27</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 5,4</t>
+          <t>-2,59; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,03</t>
+          <t>-3,9; 0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,0</t>
+          <t>-3,16; 2,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 5,05</t>
+          <t>-1,73; 5,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 4,75</t>
+          <t>-2,21; 5,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,74</t>
+          <t>-5,03; 5,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,9</t>
+          <t>-5,89; 4,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,34</t>
+          <t>2,27; 14,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 3,6</t>
+          <t>-11,69; 2,28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 10,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 3,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 2,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 7,79</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 2,17</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 6,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-43,22%</t>
+          <t>-48,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>63,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>-20,59%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>51,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,38%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 497,4</t>
+          <t>-71,96; 364,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-87,13; 116,55</t>
+          <t>-86,27; 82,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,75; 242,69</t>
+          <t>-78,02; 232,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 49,75</t>
+          <t>-53,87; 491,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 44,76</t>
+          <t>-60,39; 453,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 67,08</t>
+          <t>-31,91; 53,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 60,96</t>
+          <t>-36,37; 47,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 37,47</t>
+          <t>12,79; 134,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 56,36</t>
+          <t>-47,16; 13,07</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-20,07; 99,02</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-30,99; 58,19</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-37,69; 40,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 117,42</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-43,93; 21,52</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-15,1; 95,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,77</t>
+          <t>-3,7; 2,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,21</t>
+          <t>-4,31; 1,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 7,94</t>
+          <t>-2,29; 4,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 8,17</t>
+          <t>-1,91; 7,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,4</t>
+          <t>-4,71; 6,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 7,24</t>
+          <t>-3,8; 8,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 4,66</t>
+          <t>-4,21; 7,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,2</t>
+          <t>1,29; 13,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 6,03</t>
+          <t>-10,31; 4,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 12,4</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 4,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 3,94</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 8,35</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 4,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 7,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,74%</t>
+          <t>-7,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-24,3%</t>
+          <t>-24,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>51,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>-10,28%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>36,97%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 119,63</t>
+          <t>-60,38; 114,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,92; 107,94</t>
+          <t>-67,74; 83,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 296,25</t>
+          <t>-43,92; 197,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 49,58</t>
+          <t>-28,61; 207,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 53,95</t>
+          <t>-45,97; 147,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 44,63</t>
+          <t>-16,75; 48,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 47,53</t>
+          <t>-17,58; 50,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 42,06</t>
+          <t>5,98; 85,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 60,69</t>
+          <t>-33,49; 18,26</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-11,58; 76,74</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-20,77; 43,7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 37,74</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 80,58</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-23,03; 30,17</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; 67,52</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,59</t>
+          <t>-4,48; 5,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 7,78</t>
+          <t>-2,19; 8,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 10,34</t>
+          <t>-0,02; 11,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 7,95</t>
+          <t>-3,59; 11,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 3,84</t>
+          <t>-2,78; 11,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 12,5</t>
+          <t>-9,14; 6,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,67</t>
+          <t>-11,89; 3,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,97</t>
+          <t>-3,35; 14,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,97</t>
+          <t>-7,6; 10,23</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 11,48</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 4,59</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 4,06</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 11,28</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 8,28</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 9,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>-18,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-4,76%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 94,81</t>
+          <t>-43,49; 99,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 154,12</t>
+          <t>-22,95; 163,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 212,73</t>
+          <t>1,04; 245,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 42,91</t>
+          <t>-22,46; 108,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 21,13</t>
+          <t>-20,65; 131,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 68,59</t>
+          <t>-31,78; 32,77</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 35,83</t>
+          <t>-44,09; 17,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,85; 32,53</t>
+          <t>-11,86; 74,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 82,77</t>
+          <t>-22,08; 42,56</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,64; 49,57</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-27,28; 35,42</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-31,58; 30,59</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 84,13</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; 44,3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 57,19</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-3,02</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 10,53</t>
+          <t>-9,92; 8,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 10,99</t>
+          <t>-9,86; 8,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 9,03</t>
+          <t>-8,26; 10,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 8,96</t>
+          <t>-6,11; 14,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 8,8</t>
+          <t>-3,58; 16,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 20,6</t>
+          <t>-11,19; 8,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 6,28</t>
+          <t>-10,09; 8,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 6,99</t>
+          <t>-4,02; 17,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 12,81</t>
+          <t>-12,39; 11,09</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 8,93</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 5,9</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 6,95</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 11,3</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,23; 9,17</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 8,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>17,52%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>-2,89%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-7,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-2,81%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>14,37%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 89,58</t>
+          <t>-44,39; 68,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 95,79</t>
+          <t>-45,87; 77,36</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 75,2</t>
+          <t>-39,41; 89,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 32,07</t>
+          <t>-26,43; 101,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 28,63</t>
+          <t>-19,0; 150,28</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 69,68</t>
+          <t>-27,09; 27,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 25,73</t>
+          <t>-25,72; 29,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 30,96</t>
+          <t>-9,92; 58,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 54,32</t>
+          <t>-27,33; 31,28</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-30,86; 25,42</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-24,71; 24,58</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-24,12; 28,39</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 46,74</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-18,22; 34,96</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-20,69; 30,84</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,19</t>
+          <t>-2,07; 2,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,47</t>
+          <t>-2,47; 1,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 4,03</t>
+          <t>-0,74; 3,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,97</t>
+          <t>-0,55; 4,44</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,13</t>
+          <t>-1,03; 4,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,35</t>
+          <t>-3,29; 2,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,05</t>
+          <t>-3,65; 2,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,18</t>
+          <t>1,88; 8,69</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,32</t>
+          <t>-4,8; 2,4</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 5,75</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 1,77</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 1,27</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 5,57</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 2,29</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 4,21</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-6,84%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-5,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>-5,82%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-0,53%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-5,66%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 49,24</t>
+          <t>-31,32; 48,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 32,47</t>
+          <t>-37,99; 28,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 91,45</t>
+          <t>-12,2; 77,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 17,91</t>
+          <t>-6,73; 77,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,66; 12,77</t>
+          <t>-12,19; 67,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 38,16</t>
+          <t>-15,95; 16,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 18,47</t>
+          <t>-18,26; 12,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 9,73</t>
+          <t>8,92; 49,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 38,54</t>
+          <t>-18,76; 10,8</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 30,11</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 15,93</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 12,1</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 48,57</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-13,93; 15,5</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 33,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
